--- a/biology/Botanique/Jardin_antique_méditerranéen/Jardin_antique_méditerranéen.xlsx
+++ b/biology/Botanique/Jardin_antique_méditerranéen/Jardin_antique_méditerranéen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_antique_m%C3%A9diterran%C3%A9en</t>
+          <t>Jardin_antique_méditerranéen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ouvert en juillet 2011[1], le jardin antique méditerranéen (le JAM), situé à Balaruc-les-Bains dans le département de l'Hérault, propose sur deux hectares une promenade chronologique, courant depuis le Ier siècle avant notre ère jusqu'au IIIe siècle, au milieu d'une flore méditerranéenne[2] révélée par la synthèse des résultats des disciplines botaniques travaillant dans le domaine archéologique depuis 40 ans. Le jardin est dirigé par Stéphane Ferrandis. 
+Ouvert en juillet 2011, le jardin antique méditerranéen (le JAM), situé à Balaruc-les-Bains dans le département de l'Hérault, propose sur deux hectares une promenade chronologique, courant depuis le Ier siècle avant notre ère jusqu'au IIIe siècle, au milieu d'une flore méditerranéenne révélée par la synthèse des résultats des disciplines botaniques travaillant dans le domaine archéologique depuis 40 ans. Le jardin est dirigé par Stéphane Ferrandis. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_antique_m%C3%A9diterran%C3%A9en</t>
+          <t>Jardin_antique_méditerranéen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur le flanc de la colline du Puech d'Ay, rue des Piochs, en plein cœur de la commune, il domine l'étang de Thau et fait face au mont Saint-Clair[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le flanc de la colline du Puech d'Ay, rue des Piochs, en plein cœur de la commune, il domine l'étang de Thau et fait face au mont Saint-Clair.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_antique_m%C3%A9diterran%C3%A9en</t>
+          <t>Jardin_antique_méditerranéen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construit et aménagé telle une maison (domus), le JAM dévoile un cheminement paysager s'effectuant à travers sept pièces (cellulae ou loci) thématisées[4],[5],[6] : un jardin nourricier (hoeredium) ; un bois sacré (lucus et nemus) et un jardin funéraire ; un espace ornemental consacré aux plantes magiques astrologiques et médicinales ; une zone vouée aux plantes maraîchères, aromatiques et condimentaires ; un jardin des plantes utilisées pour les parfums et les onguents ; une terrasse de topiaires et un espace réservé aux plantes liées aux artisanats.
-Jardin remarquable en juillet 2012[7], il présente un exemple unique d'ars memoriae et sa gestion est celle d'un jardin écologique. Il est encore une collection patrimoniale de biodiversité et de ressources ethnobotaniques en Languedoc-Roussillon[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construit et aménagé telle une maison (domus), le JAM dévoile un cheminement paysager s'effectuant à travers sept pièces (cellulae ou loci) thématisées : un jardin nourricier (hoeredium) ; un bois sacré (lucus et nemus) et un jardin funéraire ; un espace ornemental consacré aux plantes magiques astrologiques et médicinales ; une zone vouée aux plantes maraîchères, aromatiques et condimentaires ; un jardin des plantes utilisées pour les parfums et les onguents ; une terrasse de topiaires et un espace réservé aux plantes liées aux artisanats.
+Jardin remarquable en juillet 2012, il présente un exemple unique d'ars memoriae et sa gestion est celle d'un jardin écologique. Il est encore une collection patrimoniale de biodiversité et de ressources ethnobotaniques en Languedoc-Roussillon.
 </t>
         </is>
       </c>
